--- a/2020/tabelas_por_mes/tabelas_Jan_to_Apr.xlsx
+++ b/2020/tabelas_por_mes/tabelas_Jan_to_Apr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vascoalbertofiliperibeiro/R/SUS/2020/tabelas_por_mes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F15C4-9FF3-7A46-933D-4282A82AF488}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE92B3-53DA-E44A-845B-5CB107C3407A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
